--- a/spider/huatai/input/华泰证券2015-2019.xlsx
+++ b/spider/huatai/input/华泰证券2015-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangliquan\Desktop\current_work\deal-record\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huatai\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0AB022-E3E5-4641-9E7F-5504D9BCA32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3459B9-15BE-42DB-A651-8507391CCBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15435" xr2:uid="{7C340DB3-FF59-4A2D-8E1E-8186365EDB5B}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{7C340DB3-FF59-4A2D-8E1E-8186365EDB5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="85">
   <si>
     <t>518880</t>
   </si>
@@ -1175,6 +1175,27 @@
     <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>基金资金拨入</t>
+  </si>
+  <si>
+    <t>124增加金额 基金代码：940018,发生份额：722.35</t>
+  </si>
+  <si>
+    <t>银行转取</t>
+  </si>
+  <si>
+    <t>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=722.35</t>
+  </si>
+  <si>
+    <t>利息归本</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 利息归本: 归本利息为 0.13correct_balance=0</t>
+  </si>
+  <si>
+    <t>122扣除金额 基金代码：940018,发生份额：.13</t>
+  </si>
 </sst>
 </file>
 
@@ -1622,10 +1643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D32649B-8A81-4393-9E64-1349BF75C90F}">
-  <dimension ref="A1:M685"/>
+  <dimension ref="A1:M706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="M144" sqref="M144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C685" sqref="C685:D689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32440,11 +32462,11 @@
         <v>43815</v>
       </c>
       <c r="C685" s="10" t="str">
-        <f>" "</f>
+        <f t="shared" ref="C685:D689" si="107">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D685" s="10" t="str">
-        <f>" "</f>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E685" s="10" t="s">
@@ -32475,6 +32497,421 @@
       <c r="M685" s="14" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A686" s="11">
+        <v>3037</v>
+      </c>
+      <c r="B686" s="12">
+        <v>43817</v>
+      </c>
+      <c r="C686" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D686" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E686" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F686" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G686" s="15">
+        <v>0</v>
+      </c>
+      <c r="H686" s="14">
+        <v>0</v>
+      </c>
+      <c r="I686" s="15">
+        <v>722.35</v>
+      </c>
+      <c r="J686" s="15">
+        <v>722.35</v>
+      </c>
+      <c r="K686" s="15">
+        <v>0</v>
+      </c>
+      <c r="L686" s="14"/>
+      <c r="M686" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A687" s="11">
+        <v>293</v>
+      </c>
+      <c r="B687" s="12">
+        <v>43818</v>
+      </c>
+      <c r="C687" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D687" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E687" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F687" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G687" s="15">
+        <v>0</v>
+      </c>
+      <c r="H687" s="14">
+        <v>0</v>
+      </c>
+      <c r="I687" s="15">
+        <v>0</v>
+      </c>
+      <c r="J687" s="15">
+        <v>0</v>
+      </c>
+      <c r="K687" s="15">
+        <v>0</v>
+      </c>
+      <c r="L687" s="14"/>
+      <c r="M687" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A688" s="11">
+        <v>5816</v>
+      </c>
+      <c r="B688" s="12">
+        <v>43822</v>
+      </c>
+      <c r="C688" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D688" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E688" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F688" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G688" s="15">
+        <v>0</v>
+      </c>
+      <c r="H688" s="14">
+        <v>0</v>
+      </c>
+      <c r="I688" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="J688" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="K688" s="15">
+        <v>0</v>
+      </c>
+      <c r="L688" s="14"/>
+      <c r="M688" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A689" s="11">
+        <v>10914</v>
+      </c>
+      <c r="B689" s="12">
+        <v>43823</v>
+      </c>
+      <c r="C689" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D689" s="10" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E689" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F689" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G689" s="15">
+        <v>0</v>
+      </c>
+      <c r="H689" s="14">
+        <v>0</v>
+      </c>
+      <c r="I689" s="15">
+        <v>0</v>
+      </c>
+      <c r="J689" s="15">
+        <v>0</v>
+      </c>
+      <c r="K689" s="15">
+        <v>0</v>
+      </c>
+      <c r="L689" s="14"/>
+      <c r="M689" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A690" s="11"/>
+      <c r="B690" s="12"/>
+      <c r="C690" s="10"/>
+      <c r="D690" s="10"/>
+      <c r="E690" s="10"/>
+      <c r="F690" s="10"/>
+      <c r="G690" s="13"/>
+      <c r="H690" s="14"/>
+      <c r="I690" s="15"/>
+      <c r="J690" s="15"/>
+      <c r="K690" s="15"/>
+      <c r="L690" s="14"/>
+      <c r="M690" s="14"/>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A691" s="11"/>
+      <c r="B691" s="12"/>
+      <c r="C691" s="10"/>
+      <c r="D691" s="10"/>
+      <c r="E691" s="10"/>
+      <c r="F691" s="10"/>
+      <c r="G691" s="13"/>
+      <c r="H691" s="14"/>
+      <c r="I691" s="15"/>
+      <c r="J691" s="15"/>
+      <c r="K691" s="15"/>
+      <c r="L691" s="14"/>
+      <c r="M691" s="14"/>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A692" s="11"/>
+      <c r="B692" s="12"/>
+      <c r="C692" s="10"/>
+      <c r="D692" s="10"/>
+      <c r="E692" s="10"/>
+      <c r="F692" s="10"/>
+      <c r="G692" s="13"/>
+      <c r="H692" s="14"/>
+      <c r="I692" s="15"/>
+      <c r="J692" s="15"/>
+      <c r="K692" s="15"/>
+      <c r="L692" s="14"/>
+      <c r="M692" s="14"/>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A693" s="11"/>
+      <c r="B693" s="12"/>
+      <c r="C693" s="10"/>
+      <c r="D693" s="10"/>
+      <c r="E693" s="10"/>
+      <c r="F693" s="10"/>
+      <c r="G693" s="13"/>
+      <c r="H693" s="14"/>
+      <c r="I693" s="15"/>
+      <c r="J693" s="15"/>
+      <c r="K693" s="15"/>
+      <c r="L693" s="14"/>
+      <c r="M693" s="14"/>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A694" s="11"/>
+      <c r="B694" s="12"/>
+      <c r="C694" s="10"/>
+      <c r="D694" s="10"/>
+      <c r="E694" s="10"/>
+      <c r="F694" s="10"/>
+      <c r="G694" s="13"/>
+      <c r="H694" s="14"/>
+      <c r="I694" s="15"/>
+      <c r="J694" s="15"/>
+      <c r="K694" s="15"/>
+      <c r="L694" s="14"/>
+      <c r="M694" s="14"/>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A695" s="11"/>
+      <c r="B695" s="12"/>
+      <c r="C695" s="10"/>
+      <c r="D695" s="10"/>
+      <c r="E695" s="10"/>
+      <c r="F695" s="10"/>
+      <c r="G695" s="13"/>
+      <c r="H695" s="14"/>
+      <c r="I695" s="15"/>
+      <c r="J695" s="15"/>
+      <c r="K695" s="15"/>
+      <c r="L695" s="14"/>
+      <c r="M695" s="14"/>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A696" s="11"/>
+      <c r="B696" s="12"/>
+      <c r="C696" s="10"/>
+      <c r="D696" s="10"/>
+      <c r="E696" s="10"/>
+      <c r="F696" s="10"/>
+      <c r="G696" s="13"/>
+      <c r="H696" s="14"/>
+      <c r="I696" s="15"/>
+      <c r="J696" s="15"/>
+      <c r="K696" s="15"/>
+      <c r="L696" s="14"/>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A697" s="11"/>
+      <c r="B697" s="12"/>
+      <c r="C697" s="10"/>
+      <c r="D697" s="10"/>
+      <c r="E697" s="10"/>
+      <c r="F697" s="10"/>
+      <c r="G697" s="13"/>
+      <c r="H697" s="14"/>
+      <c r="I697" s="15"/>
+      <c r="J697" s="15"/>
+      <c r="K697" s="15"/>
+      <c r="L697" s="14"/>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A698" s="11"/>
+      <c r="B698" s="12"/>
+      <c r="C698" s="10"/>
+      <c r="D698" s="10"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="10"/>
+      <c r="G698" s="13"/>
+      <c r="H698" s="14"/>
+      <c r="I698" s="15"/>
+      <c r="J698" s="15"/>
+      <c r="K698" s="15"/>
+      <c r="L698" s="14"/>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A699" s="11"/>
+      <c r="B699" s="12"/>
+      <c r="C699" s="10"/>
+      <c r="D699" s="10"/>
+      <c r="E699" s="10"/>
+      <c r="F699" s="10"/>
+      <c r="G699" s="13"/>
+      <c r="H699" s="14"/>
+      <c r="I699" s="15"/>
+      <c r="J699" s="15"/>
+      <c r="K699" s="15"/>
+      <c r="L699" s="14"/>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A700" s="11"/>
+      <c r="B700" s="12"/>
+      <c r="C700" s="10"/>
+      <c r="D700" s="10"/>
+      <c r="E700" s="10"/>
+      <c r="F700" s="10"/>
+      <c r="G700" s="13"/>
+      <c r="H700" s="14"/>
+      <c r="I700" s="15"/>
+      <c r="J700" s="15"/>
+      <c r="K700" s="15"/>
+      <c r="L700" s="14"/>
+      <c r="M700" s="14"/>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A701" s="11"/>
+      <c r="B701" s="12"/>
+      <c r="C701" s="10"/>
+      <c r="D701" s="10"/>
+      <c r="E701" s="10"/>
+      <c r="F701" s="10"/>
+      <c r="G701" s="13"/>
+      <c r="H701" s="14"/>
+      <c r="I701" s="15"/>
+      <c r="J701" s="15"/>
+      <c r="K701" s="15"/>
+      <c r="L701" s="14"/>
+      <c r="M701" s="14"/>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A702" s="11"/>
+      <c r="B702" s="12"/>
+      <c r="C702" s="10"/>
+      <c r="D702" s="10"/>
+      <c r="E702" s="10"/>
+      <c r="F702" s="10"/>
+      <c r="G702" s="13"/>
+      <c r="H702" s="14"/>
+      <c r="I702" s="15"/>
+      <c r="J702" s="15"/>
+      <c r="K702" s="15"/>
+      <c r="L702" s="14"/>
+      <c r="M702" s="14"/>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A703" s="11"/>
+      <c r="B703" s="12"/>
+      <c r="C703" s="10"/>
+      <c r="D703" s="10"/>
+      <c r="E703" s="10"/>
+      <c r="F703" s="10"/>
+      <c r="G703" s="13"/>
+      <c r="H703" s="14"/>
+      <c r="I703" s="15"/>
+      <c r="J703" s="15"/>
+      <c r="K703" s="15"/>
+      <c r="L703" s="14"/>
+      <c r="M703" s="14"/>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A704" s="11"/>
+      <c r="B704" s="12"/>
+      <c r="C704" s="10"/>
+      <c r="D704" s="10"/>
+      <c r="E704" s="10"/>
+      <c r="F704" s="10"/>
+      <c r="G704" s="13"/>
+      <c r="H704" s="14"/>
+      <c r="I704" s="15"/>
+      <c r="J704" s="15"/>
+      <c r="K704" s="15"/>
+      <c r="L704" s="14"/>
+      <c r="M704" s="14"/>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A705" s="11"/>
+      <c r="B705" s="12"/>
+      <c r="C705" s="10"/>
+      <c r="D705" s="10"/>
+      <c r="E705" s="10"/>
+      <c r="F705" s="10"/>
+      <c r="G705" s="13"/>
+      <c r="H705" s="14"/>
+      <c r="I705" s="15"/>
+      <c r="J705" s="15"/>
+      <c r="K705" s="15"/>
+      <c r="L705" s="14"/>
+      <c r="M705" s="14"/>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A706" s="11"/>
+      <c r="B706" s="12"/>
+      <c r="C706" s="10"/>
+      <c r="D706" s="10"/>
+      <c r="E706" s="10"/>
+      <c r="F706" s="10"/>
+      <c r="G706" s="13"/>
+      <c r="H706" s="14"/>
+      <c r="I706" s="15"/>
+      <c r="J706" s="15"/>
+      <c r="K706" s="15"/>
+      <c r="L706" s="14"/>
+      <c r="M706" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{85DBF1B4-8D7F-4EDE-A420-C2DF43192F11}"/>
